--- a/client/public/static/excel/dataset.xlsx
+++ b/client/public/static/excel/dataset.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Teltrium\Cart\Source\CART-UI\client\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teltrium\Spectrum\Source\spectrum-dashboard\client\public\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B92B2D-F8F3-4AAD-BF8E-A833CF491968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270ACAB1-4DEC-4468-BB6B-677CBE8E51AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19092" yWindow="-1248" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="HF" sheetId="5" r:id="rId1"/>
+    <sheet name="VHF" sheetId="6" r:id="rId2"/>
+    <sheet name="UHF" sheetId="7" r:id="rId3"/>
+    <sheet name="L-Band" sheetId="3" r:id="rId4"/>
+    <sheet name="S-Band" sheetId="8" r:id="rId5"/>
+    <sheet name="C-Band" sheetId="9" r:id="rId6"/>
+    <sheet name="X-Band" sheetId="10" r:id="rId7"/>
+    <sheet name="Ku-Band" sheetId="2" r:id="rId8"/>
+    <sheet name="Ka-Band" sheetId="11" r:id="rId9"/>
+    <sheet name="V-Band" sheetId="12" r:id="rId10"/>
+    <sheet name="W-Band" sheetId="13" r:id="rId11"/>
+    <sheet name="Test" sheetId="1" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,153 +36,153 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="106">
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>chart_type</t>
+  </si>
   <si>
     <t>color</t>
   </si>
   <si>
+    <t>Hex</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
     <t>end</t>
   </si>
   <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>AERONAUTICAL MOBILE (R)</t>
+  </si>
+  <si>
+    <t>Ka-Band 1</t>
+  </si>
+  <si>
+    <t>light blue</t>
+  </si>
+  <si>
     <t>#0080ff</t>
-  </si>
-  <si>
-    <t>Hex</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>light blue</t>
-  </si>
-  <si>
-    <t>AERONAUTICAL MOBILE (OR)</t>
-  </si>
-  <si>
-    <t>AERONAUTICAL MOBILE (R)</t>
-  </si>
-  <si>
-    <t>FIXED</t>
-  </si>
-  <si>
-    <t>#ff3399</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOBILE </t>
-  </si>
-  <si>
-    <t>remark</t>
-  </si>
-  <si>
-    <t>except aeronautical mobile ®</t>
-  </si>
-  <si>
-    <t>#ffb366</t>
-  </si>
-  <si>
-    <t>light yellow</t>
-  </si>
-  <si>
-    <t>except aeronautical mobile</t>
-  </si>
-  <si>
-    <t>Radiolocation</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>#e6b800</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>chart_type</t>
-  </si>
-  <si>
-    <t>Ka-Band 1</t>
-  </si>
-  <si>
-    <t>Ka-Band 2</t>
-  </si>
-  <si>
-    <t>Ka-Band 3</t>
-  </si>
-  <si>
-    <t>Ka-Band 4</t>
-  </si>
-  <si>
-    <t>Ku-Band 1</t>
-  </si>
-  <si>
-    <t>Ku-Band 2</t>
-  </si>
-  <si>
-    <t>L-Band 1</t>
-  </si>
-  <si>
-    <t>S-Band 1</t>
-  </si>
-  <si>
-    <t>S-Band 2</t>
-  </si>
-  <si>
-    <t>S-Band 3</t>
-  </si>
-  <si>
-    <t>S-Band 4</t>
-  </si>
-  <si>
-    <t>UHF 1</t>
-  </si>
-  <si>
-    <t>X-Band 1</t>
-  </si>
-  <si>
-    <t>X-Band 2</t>
-  </si>
-  <si>
-    <t>content</t>
   </si>
   <si>
     <t xml:space="preserve">"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."
 </t>
   </si>
   <si>
+    <t>AERONAUTICAL MOBILE (OR)</t>
+  </si>
+  <si>
+    <t>Ka-Band 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">2"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."
 </t>
   </si>
   <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>Ka-Band 3</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>#ff3399</t>
+  </si>
+  <si>
     <t xml:space="preserve">3"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."
 </t>
   </si>
   <si>
+    <t xml:space="preserve">MOBILE </t>
+  </si>
+  <si>
+    <t>Ka-Band 4</t>
+  </si>
+  <si>
+    <t>light yellow</t>
+  </si>
+  <si>
+    <t>#ffb366</t>
+  </si>
+  <si>
+    <t>except aeronautical mobile ®</t>
+  </si>
+  <si>
+    <t>Ku-Band 1</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>Ku-Band 2</t>
+  </si>
+  <si>
+    <t>except aeronautical mobile</t>
+  </si>
+  <si>
+    <t>Radiolocation</t>
+  </si>
+  <si>
+    <t>L-Band 1</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>#e6b800</t>
+  </si>
+  <si>
+    <t>S-Band 1</t>
+  </si>
+  <si>
+    <t>S-Band 2</t>
+  </si>
+  <si>
+    <t>S-Band 3</t>
+  </si>
+  <si>
+    <t>S-Band 4</t>
+  </si>
+  <si>
+    <t>UHF 1</t>
+  </si>
+  <si>
+    <t>X-Band 1</t>
+  </si>
+  <si>
+    <t>X-Band 2</t>
+  </si>
+  <si>
     <t>AMATEUR</t>
   </si>
   <si>
+    <t>dark green</t>
+  </si>
+  <si>
     <t>#006600</t>
   </si>
   <si>
-    <t>dark green</t>
+    <t>MARITIME MOBILE</t>
   </si>
   <si>
     <t>#ffff80</t>
-  </si>
-  <si>
-    <t>MARITIME MOBILE</t>
   </si>
   <si>
     <t>light pink</t>
@@ -182,14 +193,207 @@
   <si>
     <t xml:space="preserve">15"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."
 </t>
+  </si>
+  <si>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>FIXED-SATELLITE (space-to-earth)</t>
+  </si>
+  <si>
+    <t>Ku-Band</t>
+  </si>
+  <si>
+    <t>#B886B4</t>
+  </si>
+  <si>
+    <t>BROADCASTING-SATELLITE</t>
+  </si>
+  <si>
+    <t>#78BA56</t>
+  </si>
+  <si>
+    <t>#CD2E8A</t>
+  </si>
+  <si>
+    <t>FIXED-SATELLITE (Earth-to-space)</t>
+  </si>
+  <si>
+    <t>#E6D4E4</t>
+  </si>
+  <si>
+    <t>Earth exploration - satellite (active)</t>
+  </si>
+  <si>
+    <t>#E8954C</t>
+  </si>
+  <si>
+    <t>Space research</t>
+  </si>
+  <si>
+    <t>#DB9397</t>
+  </si>
+  <si>
+    <t>EARTH EXPLORATION - SATELLITE (active)</t>
+  </si>
+  <si>
+    <t>SPACE RESEARCH (active)</t>
+  </si>
+  <si>
+    <t>Aeronatuical Radionavigation</t>
+  </si>
+  <si>
+    <t>#B25629</t>
+  </si>
+  <si>
+    <t>RADIOLOCATION</t>
+  </si>
+  <si>
+    <t>#EDD14A</t>
+  </si>
+  <si>
+    <t>SPACE RESEARCH</t>
+  </si>
+  <si>
+    <t>Standard frequency and time signal satellite (Earth-to-space)</t>
+  </si>
+  <si>
+    <t>#B4B4B8</t>
+  </si>
+  <si>
+    <t>Mobile-satellite (Earth-to-space)</t>
+  </si>
+  <si>
+    <t>#925EA1</t>
+  </si>
+  <si>
+    <t>Mobile-satellite (space-to-earth)</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>EARTH EXPLORATION - SATELLITE (passive)</t>
+  </si>
+  <si>
+    <t>SPACE RESEARCH (passive)</t>
+  </si>
+  <si>
+    <t>RADIO ASTRONOMY</t>
+  </si>
+  <si>
+    <t>AERONAUTICAL RADIONAVIGATION</t>
+  </si>
+  <si>
+    <t>Space research (deep space)(Earth-to-space)</t>
+  </si>
+  <si>
+    <t>MOBILE-SATELLITE (space-to-earth)</t>
+  </si>
+  <si>
+    <t>FIXED-SATELLITE (space-to-Earth)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Standard frequency and time signal satellite (space-to-Earth)</t>
+  </si>
+  <si>
+    <t>BROADCASTING (AM RADIO)</t>
+  </si>
+  <si>
+    <t>L-Band</t>
+  </si>
+  <si>
+    <t>#4F95B4</t>
+  </si>
+  <si>
+    <t>BROADCASTING</t>
+  </si>
+  <si>
+    <t>#E6D4E5</t>
+  </si>
+  <si>
+    <t>#CD2F8A</t>
+  </si>
+  <si>
+    <t>#EDD14B</t>
+  </si>
+  <si>
+    <t>#409171</t>
+  </si>
+  <si>
+    <t>#E8E4C5</t>
+  </si>
+  <si>
+    <t>STANDARD FREQ. AND TIME SIGNAL (2500KJZ)</t>
+  </si>
+  <si>
+    <t>#91979C</t>
+  </si>
+  <si>
+    <t>#4598D5</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>15"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."</t>
+  </si>
+  <si>
+    <t>"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."</t>
+  </si>
+  <si>
+    <t>2"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."</t>
+  </si>
+  <si>
+    <t>3"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>2"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>3"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,13 +421,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,11 +732,193 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85870A59-4FC9-4001-BB30-F3BCBF044F80}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C6D5C5-F879-4906-9376-EDD46160FA34}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFD603A-D062-40B3-8039-3A98D8550426}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,34 +937,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -562,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>3</v>
@@ -583,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -591,16 +1001,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>3.0249999999999999</v>
@@ -612,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -620,16 +1030,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>3.1549999999999998</v>
@@ -641,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -649,16 +1059,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <v>3.1549999999999998</v>
@@ -670,10 +1080,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,16 +1091,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1">
         <v>3.23</v>
@@ -707,16 +1117,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>3.23</v>
@@ -728,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -736,16 +1146,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1">
         <v>3.23</v>
@@ -762,16 +1172,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
         <v>3.4</v>
@@ -788,16 +1198,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>3.4249999999999998</v>
@@ -814,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1">
         <v>3.5550000000000002</v>
@@ -840,16 +1250,16 @@
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>3.5550000000000002</v>
@@ -861,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -869,16 +1279,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1">
         <v>3.63</v>
@@ -890,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -898,16 +1308,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1">
         <v>3.63</v>
@@ -919,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -927,16 +1337,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1">
         <v>3.63</v>
@@ -956,13 +1366,13 @@
         <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="1">
         <v>3.7</v>
@@ -974,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -982,16 +1392,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>4</v>
@@ -1003,7 +1413,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,16 +1421,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
@@ -1032,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1040,16 +1450,16 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1">
         <v>4.0629999999999997</v>
@@ -1061,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1069,16 +1479,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
         <v>4.4379999999999997</v>
@@ -1095,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -1116,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1124,16 +1534,16 @@
         <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F22" s="1">
         <v>4.6500000000000004</v>
@@ -1150,16 +1560,16 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
         <v>4.7</v>
@@ -1176,16 +1586,16 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F24" s="1">
         <v>4.75</v>
@@ -1202,16 +1612,16 @@
         <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F25" s="1">
         <v>4.75</v>
@@ -1223,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,16 +1644,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F26" s="1">
         <v>4.8499999999999996</v>
@@ -1263,4 +1673,3536 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BFDC5A-0DD5-42B7-9A6A-6E5EC7A93FCD}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D7893-58FC-41C0-93E9-842748E98502}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F82695-960C-4854-B928-DF49C2D1099F}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1605</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1605</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1615</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1605</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1615</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1615</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1705</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1705</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1800</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1705</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1800</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1705</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1800</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1900</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1900</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2065</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2065</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2065</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2065</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2107</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2107</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2170</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2170</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2170</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2170</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2170</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2170</v>
+      </c>
+      <c r="G18" s="4">
+        <v>2173.5</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2170</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2173.5</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2173.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2190.5</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2190.5</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2194</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="4">
+        <v>2190.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>2194</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2194</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2495</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="4">
+        <v>2194</v>
+      </c>
+      <c r="G24" s="4">
+        <v>2495</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>13</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2194</v>
+      </c>
+      <c r="G25" s="4">
+        <v>2495</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2495</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2505</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2505</v>
+      </c>
+      <c r="G27" s="4">
+        <v>2850</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>15</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="4">
+        <v>2505</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2850</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2505</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2850</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="4">
+        <v>2850</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3000</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72AC581-0AB7-4569-8AA4-DFC6A270CE14}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047986B-A2A5-4D78-971B-A4EF77029CD1}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E132429-D83C-467A-BD93-7048FD25D87F}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE6C9B-8570-4ABC-8D45-995B6CC1426D}">
+  <dimension ref="A1:I85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4">
+        <v>11.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="H2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="H4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="H5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="G9" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="G10" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="G11" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13.25</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G13" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G15" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G20" s="4">
+        <v>14</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G21" s="4">
+        <v>14</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G22" s="4">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G23" s="4">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="4">
+        <v>13.75</v>
+      </c>
+      <c r="G25" s="4">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="4">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="4">
+        <v>14</v>
+      </c>
+      <c r="G27" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="H27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4">
+        <v>14</v>
+      </c>
+      <c r="G28" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>9</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G33" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="H34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>10</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="H35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>10</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="H36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>10</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="G37" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="H37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>11</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="G38" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>11</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="G39" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>11</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" s="4">
+        <v>14.714499999999999</v>
+      </c>
+      <c r="G40" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>12</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="G41" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="H41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>12</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="G42" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="H42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="G43" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="H43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>13</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="G44" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="H44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>13</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="G45" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="H45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>13</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="4">
+        <v>15.1365</v>
+      </c>
+      <c r="G46" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="H46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="G47" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="H47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>14</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="G48" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="H48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>14</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="4">
+        <v>15.35</v>
+      </c>
+      <c r="G49" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="H49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>15</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="G50" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="H50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>16</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="G51" s="4">
+        <v>15.63</v>
+      </c>
+      <c r="H51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>16</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="4">
+        <v>15.43</v>
+      </c>
+      <c r="G52" s="4">
+        <v>15.63</v>
+      </c>
+      <c r="H52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>17</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" s="4">
+        <v>15.63</v>
+      </c>
+      <c r="G53" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="H53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>18</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="G54" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="G55" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G56" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>19</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G57" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>19</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F58" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G58" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G59" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="H59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>20</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G60" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="H60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F62" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G62" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>21</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G63" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>21</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G64" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>21</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>21</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="G66" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="H66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>22</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G67" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="H67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>22</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G68" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="H68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>22</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="4">
+        <v>17.3</v>
+      </c>
+      <c r="G69" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="H69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>23</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="G70" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="H70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>23</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="G71" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="H71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>24</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="G72" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="H72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>24</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="G73" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="H73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>25</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F74" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="G74" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>26</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F75" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G75" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="H75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>26</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G76" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="H76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>26</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F77" s="4">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G77" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="H77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>27</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="G78" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="H78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>28</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="G79" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="H79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>28</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="G80" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="H80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>29</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="G81" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="H81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>29</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="G82" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="H82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>30</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>30</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="4">
+        <v>20.2</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC5C9E-CC9A-4DF2-A7A7-B9E312F23BB9}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="7"/>
+    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DownloadTime xmlns="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7ea57b50-da37-4592-86a0-a80ff2cc74bc">
+      <UserInfo>
+        <DisplayName>Zachary LaFontaine</DisplayName>
+        <AccountId>77</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2D6EF5CB270004DBD6F1C836AB99536" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e44e068e002d19d122b3c2de8ac4eb3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" xmlns:ns3="7ea57b50-da37-4592-86a0-a80ff2cc74bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78d5891fcc835cc3450f611e49396f28" ns2:_="" ns3:_="">
+    <xsd:import namespace="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
+    <xsd:import namespace="7ea57b50-da37-4592-86a0-a80ff2cc74bc"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:DownloadTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="DownloadTime" ma:index="17" nillable="true" ma:displayName="DownloadTime" ma:format="DateOnly" ma:internalName="DownloadTime">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7ea57b50-da37-4592-86a0-a80ff2cc74bc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A9C250-F016-4DD8-8C42-88C7FD3225EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDF671EA-151A-41B5-952E-83C5C85C9524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
+    <ds:schemaRef ds:uri="7ea57b50-da37-4592-86a0-a80ff2cc74bc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D845BA-5CD6-4FDC-B366-DD5408B1BC14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
+    <ds:schemaRef ds:uri="7ea57b50-da37-4592-86a0-a80ff2cc74bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/client/public/static/excel/dataset.xlsx
+++ b/client/public/static/excel/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Teltrium\Spectrum\Source\spectrum-dashboard\client\public\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270ACAB1-4DEC-4468-BB6B-677CBE8E51AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C933A15-FE21-4910-AB6F-DEAAEAE74D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="107">
   <si>
     <t>master</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>3"Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum."</t>
+  </si>
+  <si>
+    <t>tooltip</t>
   </si>
 </sst>
 </file>
@@ -733,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85870A59-4FC9-4001-BB30-F3BCBF044F80}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,14 +747,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -762,21 +766,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -787,10 +794,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C6D5C5-F879-4906-9376-EDD46160FA34}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD33"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,14 +805,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -816,25 +824,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -843,6 +854,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -851,10 +863,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CFD603A-D062-40B3-8039-3A98D8550426}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,14 +874,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -880,25 +893,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -907,6 +923,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -915,27 +932,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="66" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="66" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,29 +962,32 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -977,26 +997,27 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>3.0249999999999999</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1006,26 +1027,26 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>3.0249999999999999</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3.1549999999999998</v>
       </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1035,26 +1056,26 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>3.1549999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3.23</v>
       </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1064,29 +1085,29 @@
       <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>3.1549999999999998</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3.23</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1096,23 +1117,23 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>3.23</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.4</v>
       </c>
-      <c r="H6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1122,26 +1143,27 @@
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>3.23</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>3.4</v>
       </c>
-      <c r="H7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1151,23 +1173,23 @@
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>3.23</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.4</v>
       </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1177,23 +1199,24 @@
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>3.4</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>3.4249999999999998</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1203,23 +1226,23 @@
       <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>3.4249999999999998</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>3.5550000000000002</v>
       </c>
-      <c r="H10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1229,23 +1252,23 @@
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>3.5550000000000002</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>3.63</v>
       </c>
-      <c r="H11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -1255,26 +1278,26 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="1">
         <v>3.5550000000000002</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>3.63</v>
       </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -1284,26 +1307,26 @@
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="1">
         <v>3.63</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>3.7</v>
       </c>
-      <c r="H13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -1313,26 +1336,27 @@
       <c r="C14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>3.63</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>3.7</v>
       </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8</v>
       </c>
@@ -1342,23 +1366,23 @@
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>3.63</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>3.7</v>
       </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -1368,26 +1392,27 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>3.7</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="s">
+      <c r="I16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1397,26 +1422,26 @@
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>4</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>4.0629999999999997</v>
       </c>
-      <c r="H17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1426,26 +1451,26 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>4</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>4.0629999999999997</v>
       </c>
-      <c r="H18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>11</v>
       </c>
@@ -1455,26 +1480,26 @@
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>4.0629999999999997</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>4.4379999999999997</v>
       </c>
-      <c r="H19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -1484,23 +1509,23 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>4.4379999999999997</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -1510,26 +1535,27 @@
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21" s="1">
         <v>4.4379999999999997</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="H21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>13</v>
       </c>
@@ -1539,23 +1565,23 @@
       <c r="C22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>4.7</v>
       </c>
-      <c r="H22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>14</v>
       </c>
@@ -1565,23 +1591,24 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>4.7</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>4.75</v>
       </c>
-      <c r="H23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>15</v>
       </c>
@@ -1591,23 +1618,24 @@
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>4.75</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="H24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>15</v>
       </c>
@@ -1617,29 +1645,29 @@
       <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>4.75</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="H25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>16</v>
       </c>
@@ -1649,26 +1677,26 @@
       <c r="C26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>4.9950000000000001</v>
       </c>
-      <c r="H26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1677,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BFDC5A-0DD5-42B7-9A6A-6E5EC7A93FCD}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,14 +1716,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1706,21 +1735,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1731,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D7893-58FC-41C0-93E9-842748E98502}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,14 +1774,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1760,21 +1793,24 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1785,19 +1821,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F82695-960C-4854-B928-DF49C2D1099F}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1808,25 +1844,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1836,24 +1875,27 @@
       <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1000</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1605</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1863,24 +1905,27 @@
       <c r="C3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>1605</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1615</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1890,24 +1935,27 @@
       <c r="C4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>1605</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>1615</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1917,24 +1965,27 @@
       <c r="C5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>1615</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>1705</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -1944,22 +1995,25 @@
       <c r="C6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>1705</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>1800</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1969,22 +2023,25 @@
       <c r="C7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>1705</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>1800</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1994,22 +2051,25 @@
       <c r="C8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>1705</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>1800</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -2019,22 +2079,25 @@
       <c r="C9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>1800</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>1900</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -2044,22 +2107,25 @@
       <c r="C10" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>1900</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>2000</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -2069,22 +2135,25 @@
       <c r="C11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>2000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>2065</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -2094,22 +2163,25 @@
       <c r="C12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>2000</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>2065</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>7</v>
       </c>
@@ -2119,24 +2191,27 @@
       <c r="C13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>2000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>2065</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>8</v>
       </c>
@@ -2146,22 +2221,25 @@
       <c r="C14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>2065</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>2107</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -2171,22 +2249,25 @@
       <c r="C15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>2107</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>2170</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>9</v>
       </c>
@@ -2196,24 +2277,27 @@
       <c r="C16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="4">
-        <v>2170</v>
       </c>
       <c r="G16" s="4">
         <v>2170</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="H16" s="4">
+        <v>2170</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>9</v>
       </c>
@@ -2223,24 +2307,27 @@
       <c r="C17" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2170</v>
       </c>
       <c r="G17" s="4">
         <v>2170</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="H17" s="4">
+        <v>2170</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>10</v>
       </c>
@@ -2250,24 +2337,27 @@
       <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>2170</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>2173.5</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -2277,24 +2367,27 @@
       <c r="C19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>2170</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>2173.5</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>11</v>
       </c>
@@ -2304,22 +2397,25 @@
       <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>2173.5</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>2190.5</v>
       </c>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -2329,22 +2425,25 @@
       <c r="C21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>2190.5</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>2194</v>
       </c>
-      <c r="H21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>12</v>
       </c>
@@ -2354,22 +2453,25 @@
       <c r="C22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>2190.5</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>2194</v>
       </c>
-      <c r="H22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>13</v>
       </c>
@@ -2379,22 +2481,25 @@
       <c r="C23" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>2194</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>2495</v>
       </c>
-      <c r="H23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>13</v>
       </c>
@@ -2404,22 +2509,25 @@
       <c r="C24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>2194</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>2495</v>
       </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>13</v>
       </c>
@@ -2429,24 +2537,27 @@
       <c r="C25" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>2194</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>2495</v>
       </c>
-      <c r="H25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>14</v>
       </c>
@@ -2456,24 +2567,27 @@
       <c r="C26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>2495</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>2505</v>
       </c>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>15</v>
       </c>
@@ -2483,21 +2597,24 @@
       <c r="C27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>2505</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>2850</v>
       </c>
-      <c r="H27" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>15</v>
       </c>
@@ -2507,21 +2624,24 @@
       <c r="C28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>2505</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>2850</v>
       </c>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>15</v>
       </c>
@@ -2531,21 +2651,24 @@
       <c r="C29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>2505</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>2850</v>
       </c>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>16</v>
       </c>
@@ -2555,17 +2678,20 @@
       <c r="C30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>2850</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>3000</v>
       </c>
-      <c r="H30" s="4" t="b">
+      <c r="I30" s="4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2577,10 +2703,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72AC581-0AB7-4569-8AA4-DFC6A270CE14}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD34"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,14 +2714,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2606,25 +2733,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2633,6 +2763,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2641,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B047986B-A2A5-4D78-971B-A4EF77029CD1}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,14 +2783,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2670,25 +2802,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2697,6 +2832,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2705,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E132429-D83C-467A-BD93-7048FD25D87F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,14 +2852,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2734,25 +2871,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2761,6 +2901,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2769,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAE6C9B-8570-4ABC-8D45-995B6CC1426D}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,14 +2921,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2798,25 +2940,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2826,24 +2971,27 @@
       <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>11.7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>12.2</v>
       </c>
-      <c r="H2" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2853,24 +3001,27 @@
       <c r="C3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>12.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>12.7</v>
       </c>
-      <c r="H3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2880,24 +3031,27 @@
       <c r="C4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>12.2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>12.7</v>
       </c>
-      <c r="H4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2907,24 +3061,27 @@
       <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>12.7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>13.25</v>
       </c>
-      <c r="H5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2934,22 +3091,25 @@
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>12.7</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>13.25</v>
       </c>
-      <c r="H6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -2959,22 +3119,25 @@
       <c r="C7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>12.7</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>13.25</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -2984,22 +3147,25 @@
       <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>13.25</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>13.4</v>
       </c>
-      <c r="H8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -3009,22 +3175,25 @@
       <c r="C9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>13.25</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>13.4</v>
       </c>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
@@ -3034,22 +3203,25 @@
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>13.25</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>13.4</v>
       </c>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -3059,22 +3231,25 @@
       <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>13.25</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>13.4</v>
       </c>
-      <c r="H11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -3084,22 +3259,25 @@
       <c r="C12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>13.25</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>13.4</v>
       </c>
-      <c r="H12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -3109,24 +3287,27 @@
       <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>13.4</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>13.75</v>
       </c>
-      <c r="H13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -3136,22 +3317,25 @@
       <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>13.4</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>13.75</v>
       </c>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -3161,22 +3345,25 @@
       <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>13.4</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>13.75</v>
       </c>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -3186,24 +3373,27 @@
       <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>13.4</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>13.75</v>
       </c>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>5</v>
       </c>
@@ -3213,24 +3403,27 @@
       <c r="C17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>13.4</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>13.75</v>
       </c>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -3240,24 +3433,27 @@
       <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>13.4</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>13.75</v>
       </c>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -3267,24 +3463,27 @@
       <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>13.4</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>13.75</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -3294,22 +3493,25 @@
       <c r="C20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>13.75</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>14</v>
       </c>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>6</v>
       </c>
@@ -3319,22 +3521,25 @@
       <c r="C21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>13.75</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>14</v>
       </c>
-      <c r="H21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>6</v>
       </c>
@@ -3344,22 +3549,25 @@
       <c r="C22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="4">
+      <c r="G22" s="4">
         <v>13.75</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>14</v>
       </c>
-      <c r="H22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>6</v>
       </c>
@@ -3369,22 +3577,25 @@
       <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="4">
+      <c r="G23" s="4">
         <v>13.75</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>14</v>
       </c>
-      <c r="H23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>6</v>
       </c>
@@ -3394,22 +3605,25 @@
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>13.75</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>14</v>
       </c>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>6</v>
       </c>
@@ -3419,24 +3633,27 @@
       <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>13.75</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="4">
         <v>14</v>
       </c>
-      <c r="H25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>7</v>
       </c>
@@ -3446,24 +3663,27 @@
       <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>14</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="4">
         <v>14.2</v>
       </c>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>7</v>
       </c>
@@ -3473,21 +3693,24 @@
       <c r="C27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>14</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>14.2</v>
       </c>
-      <c r="H27" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>7</v>
       </c>
@@ -3497,21 +3720,24 @@
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>14</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>14.2</v>
       </c>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>8</v>
       </c>
@@ -3521,21 +3747,24 @@
       <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
+      <c r="D29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>14.2</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>14.4</v>
       </c>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>8</v>
       </c>
@@ -3545,21 +3774,24 @@
       <c r="C30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>14.2</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>14.4</v>
       </c>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>9</v>
       </c>
@@ -3569,21 +3801,24 @@
       <c r="C31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="D31" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>14.4</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>14.5</v>
       </c>
-      <c r="H31" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -3593,21 +3828,24 @@
       <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+      <c r="D32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>14.4</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>14.5</v>
       </c>
-      <c r="H32" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>9</v>
       </c>
@@ -3617,21 +3855,24 @@
       <c r="C33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>14.4</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>14.5</v>
       </c>
-      <c r="H33" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>9</v>
       </c>
@@ -3641,21 +3882,24 @@
       <c r="C34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>14.4</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>14.5</v>
       </c>
-      <c r="H34" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>10</v>
       </c>
@@ -3665,21 +3909,24 @@
       <c r="C35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="D35" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>14.5</v>
       </c>
-      <c r="G35" s="4">
+      <c r="H35" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="H35" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>10</v>
       </c>
@@ -3689,21 +3936,24 @@
       <c r="C36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
+      <c r="D36" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>14.5</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="H36" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>10</v>
       </c>
@@ -3713,21 +3963,24 @@
       <c r="C37" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>14.5</v>
       </c>
-      <c r="G37" s="4">
+      <c r="H37" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="H37" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>11</v>
       </c>
@@ -3737,21 +3990,24 @@
       <c r="C38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="D38" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="G38" s="4">
+      <c r="H38" s="4">
         <v>14.8</v>
       </c>
-      <c r="H38" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>11</v>
       </c>
@@ -3761,21 +4017,24 @@
       <c r="C39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="D39" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="G39" s="4">
+      <c r="H39" s="4">
         <v>14.8</v>
       </c>
-      <c r="H39" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>11</v>
       </c>
@@ -3785,21 +4044,24 @@
       <c r="C40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>14.714499999999999</v>
       </c>
-      <c r="G40" s="4">
+      <c r="H40" s="4">
         <v>14.8</v>
       </c>
-      <c r="H40" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>12</v>
       </c>
@@ -3809,21 +4071,24 @@
       <c r="C41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>14.8</v>
       </c>
-      <c r="G41" s="4">
+      <c r="H41" s="4">
         <v>15.1365</v>
       </c>
-      <c r="H41" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -3833,21 +4098,24 @@
       <c r="C42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>14.8</v>
       </c>
-      <c r="G42" s="4">
+      <c r="H42" s="4">
         <v>15.1365</v>
       </c>
-      <c r="H42" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>12</v>
       </c>
@@ -3857,21 +4125,24 @@
       <c r="C43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>14.8</v>
       </c>
-      <c r="G43" s="4">
+      <c r="H43" s="4">
         <v>15.1365</v>
       </c>
-      <c r="H43" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>13</v>
       </c>
@@ -3881,21 +4152,24 @@
       <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="D44" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>15.1365</v>
       </c>
-      <c r="G44" s="4">
+      <c r="H44" s="4">
         <v>15.35</v>
       </c>
-      <c r="H44" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>13</v>
       </c>
@@ -3905,21 +4179,24 @@
       <c r="C45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>15.1365</v>
       </c>
-      <c r="G45" s="4">
+      <c r="H45" s="4">
         <v>15.35</v>
       </c>
-      <c r="H45" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>13</v>
       </c>
@@ -3929,21 +4206,24 @@
       <c r="C46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="D46" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>15.1365</v>
       </c>
-      <c r="G46" s="4">
+      <c r="H46" s="4">
         <v>15.35</v>
       </c>
-      <c r="H46" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>14</v>
       </c>
@@ -3953,21 +4233,24 @@
       <c r="C47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>15.35</v>
       </c>
-      <c r="G47" s="4">
+      <c r="H47" s="4">
         <v>15.4</v>
       </c>
-      <c r="H47" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>14</v>
       </c>
@@ -3977,21 +4260,24 @@
       <c r="C48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
+      <c r="D48" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>15.35</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>15.4</v>
       </c>
-      <c r="H48" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>14</v>
       </c>
@@ -4001,21 +4287,24 @@
       <c r="C49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="D49" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>15.35</v>
       </c>
-      <c r="G49" s="4">
+      <c r="H49" s="4">
         <v>15.4</v>
       </c>
-      <c r="H49" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>15</v>
       </c>
@@ -4025,21 +4314,24 @@
       <c r="C50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="D50" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>15.4</v>
       </c>
-      <c r="G50" s="4">
+      <c r="H50" s="4">
         <v>15.43</v>
       </c>
-      <c r="H50" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>16</v>
       </c>
@@ -4049,21 +4341,24 @@
       <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="D51" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>15.43</v>
       </c>
-      <c r="G51" s="4">
+      <c r="H51" s="4">
         <v>15.63</v>
       </c>
-      <c r="H51" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>16</v>
       </c>
@@ -4073,21 +4368,24 @@
       <c r="C52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
+      <c r="D52" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>15.43</v>
       </c>
-      <c r="G52" s="4">
+      <c r="H52" s="4">
         <v>15.63</v>
       </c>
-      <c r="H52" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>17</v>
       </c>
@@ -4097,21 +4395,24 @@
       <c r="C53" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
+      <c r="D53" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>15.63</v>
       </c>
-      <c r="G53" s="4">
+      <c r="H53" s="4">
         <v>15.7</v>
       </c>
-      <c r="H53" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>18</v>
       </c>
@@ -4121,21 +4422,24 @@
       <c r="C54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
+      <c r="D54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>15.7</v>
       </c>
-      <c r="G54" s="4">
+      <c r="H54" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="H54" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>18</v>
       </c>
@@ -4145,21 +4449,24 @@
       <c r="C55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="D55" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="4">
+      <c r="G55" s="4">
         <v>15.7</v>
       </c>
-      <c r="G55" s="4">
+      <c r="H55" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="H55" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>19</v>
       </c>
@@ -4169,21 +4476,24 @@
       <c r="C56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
+      <c r="D56" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F56" s="4">
+      <c r="G56" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G56" s="4">
+      <c r="H56" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="H56" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>19</v>
       </c>
@@ -4193,21 +4503,24 @@
       <c r="C57" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4" t="s">
+      <c r="D57" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="4">
+      <c r="G57" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G57" s="4">
+      <c r="H57" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="H57" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>19</v>
       </c>
@@ -4217,21 +4530,24 @@
       <c r="C58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="D58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="4">
+      <c r="G58" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="H58" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="H58" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>20</v>
       </c>
@@ -4241,21 +4557,24 @@
       <c r="C59" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
+      <c r="D59" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G59" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="G59" s="4">
+      <c r="H59" s="4">
         <v>17.2</v>
       </c>
-      <c r="H59" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>20</v>
       </c>
@@ -4265,21 +4584,24 @@
       <c r="C60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
+      <c r="D60" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="4">
+      <c r="G60" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="G60" s="4">
+      <c r="H60" s="4">
         <v>17.2</v>
       </c>
-      <c r="H60" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>21</v>
       </c>
@@ -4289,21 +4611,24 @@
       <c r="C61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
+      <c r="D61" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="4">
+      <c r="G61" s="4">
         <v>17.2</v>
       </c>
-      <c r="G61" s="4">
+      <c r="H61" s="4">
         <v>17.3</v>
       </c>
-      <c r="H61" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>21</v>
       </c>
@@ -4313,21 +4638,24 @@
       <c r="C62" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
+      <c r="D62" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="4">
+      <c r="G62" s="4">
         <v>17.2</v>
       </c>
-      <c r="G62" s="4">
+      <c r="H62" s="4">
         <v>17.3</v>
       </c>
-      <c r="H62" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>21</v>
       </c>
@@ -4337,21 +4665,24 @@
       <c r="C63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F63" s="4">
+      <c r="G63" s="4">
         <v>17.2</v>
       </c>
-      <c r="G63" s="4">
+      <c r="H63" s="4">
         <v>17.3</v>
       </c>
-      <c r="H63" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>21</v>
       </c>
@@ -4361,21 +4692,24 @@
       <c r="C64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
+      <c r="D64" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F64" s="4">
+      <c r="G64" s="4">
         <v>17.2</v>
       </c>
-      <c r="G64" s="4">
+      <c r="H64" s="4">
         <v>17.3</v>
       </c>
-      <c r="H64" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>21</v>
       </c>
@@ -4385,21 +4719,24 @@
       <c r="C65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
+      <c r="D65" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F65" s="4">
+      <c r="G65" s="4">
         <v>17.2</v>
       </c>
-      <c r="G65" s="4">
+      <c r="H65" s="4">
         <v>17.3</v>
       </c>
-      <c r="H65" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>21</v>
       </c>
@@ -4409,21 +4746,24 @@
       <c r="C66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
+      <c r="D66" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F66" s="4">
+      <c r="G66" s="4">
         <v>17.2</v>
       </c>
-      <c r="G66" s="4">
+      <c r="H66" s="4">
         <v>17.3</v>
       </c>
-      <c r="H66" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>22</v>
       </c>
@@ -4433,21 +4773,24 @@
       <c r="C67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4" t="s">
+      <c r="D67" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F67" s="4">
+      <c r="G67" s="4">
         <v>17.3</v>
       </c>
-      <c r="G67" s="4">
+      <c r="H67" s="4">
         <v>17.7</v>
       </c>
-      <c r="H67" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>22</v>
       </c>
@@ -4457,21 +4800,24 @@
       <c r="C68" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="D68" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="4">
+      <c r="G68" s="4">
         <v>17.3</v>
       </c>
-      <c r="G68" s="4">
+      <c r="H68" s="4">
         <v>17.7</v>
       </c>
-      <c r="H68" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>22</v>
       </c>
@@ -4481,21 +4827,24 @@
       <c r="C69" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4" t="s">
+      <c r="D69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="4">
+      <c r="G69" s="4">
         <v>17.3</v>
       </c>
-      <c r="G69" s="4">
+      <c r="H69" s="4">
         <v>17.7</v>
       </c>
-      <c r="H69" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>23</v>
       </c>
@@ -4505,21 +4854,24 @@
       <c r="C70" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4" t="s">
+      <c r="D70" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="4">
+      <c r="G70" s="4">
         <v>17.7</v>
       </c>
-      <c r="G70" s="4">
+      <c r="H70" s="4">
         <v>17.8</v>
       </c>
-      <c r="H70" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>23</v>
       </c>
@@ -4529,21 +4881,24 @@
       <c r="C71" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4" t="s">
+      <c r="D71" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="4">
+      <c r="G71" s="4">
         <v>17.7</v>
       </c>
-      <c r="G71" s="4">
+      <c r="H71" s="4">
         <v>17.8</v>
       </c>
-      <c r="H71" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>24</v>
       </c>
@@ -4553,21 +4908,24 @@
       <c r="C72" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="D72" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="4">
+      <c r="G72" s="4">
         <v>17.8</v>
       </c>
-      <c r="G72" s="4">
+      <c r="H72" s="4">
         <v>18.3</v>
       </c>
-      <c r="H72" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>24</v>
       </c>
@@ -4577,21 +4935,24 @@
       <c r="C73" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
+      <c r="D73" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="4">
+      <c r="G73" s="4">
         <v>17.8</v>
       </c>
-      <c r="G73" s="4">
+      <c r="H73" s="4">
         <v>18.3</v>
       </c>
-      <c r="H73" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>25</v>
       </c>
@@ -4601,21 +4962,24 @@
       <c r="C74" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4" t="s">
+      <c r="D74" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F74" s="4">
+      <c r="G74" s="4">
         <v>18.3</v>
       </c>
-      <c r="G74" s="4">
+      <c r="H74" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="H74" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>26</v>
       </c>
@@ -4625,21 +4989,24 @@
       <c r="C75" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4" t="s">
+      <c r="D75" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F75" s="4">
+      <c r="G75" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G75" s="4">
+      <c r="H75" s="4">
         <v>18.8</v>
       </c>
-      <c r="H75" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>26</v>
       </c>
@@ -4649,21 +5016,24 @@
       <c r="C76" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4" t="s">
+      <c r="D76" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F76" s="4">
+      <c r="G76" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G76" s="4">
+      <c r="H76" s="4">
         <v>18.8</v>
       </c>
-      <c r="H76" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>26</v>
       </c>
@@ -4673,21 +5043,24 @@
       <c r="C77" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
+      <c r="D77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F77" s="4">
+      <c r="G77" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G77" s="4">
+      <c r="H77" s="4">
         <v>18.8</v>
       </c>
-      <c r="H77" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>27</v>
       </c>
@@ -4697,21 +5070,24 @@
       <c r="C78" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="D78" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F78" s="4">
+      <c r="G78" s="4">
         <v>18.8</v>
       </c>
-      <c r="G78" s="4">
+      <c r="H78" s="4">
         <v>19.3</v>
       </c>
-      <c r="H78" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>28</v>
       </c>
@@ -4721,21 +5097,24 @@
       <c r="C79" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4" t="s">
+      <c r="D79" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F79" s="4">
+      <c r="G79" s="4">
         <v>19.3</v>
       </c>
-      <c r="G79" s="4">
+      <c r="H79" s="4">
         <v>19.7</v>
       </c>
-      <c r="H79" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>28</v>
       </c>
@@ -4745,21 +5124,24 @@
       <c r="C80" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4" t="s">
+      <c r="D80" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F80" s="4">
+      <c r="G80" s="4">
         <v>19.3</v>
       </c>
-      <c r="G80" s="4">
+      <c r="H80" s="4">
         <v>19.7</v>
       </c>
-      <c r="H80" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>29</v>
       </c>
@@ -4769,21 +5151,24 @@
       <c r="C81" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4" t="s">
+      <c r="D81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F81" s="4">
+      <c r="G81" s="4">
         <v>19.7</v>
       </c>
-      <c r="G81" s="4">
+      <c r="H81" s="4">
         <v>20.2</v>
       </c>
-      <c r="H81" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>29</v>
       </c>
@@ -4793,21 +5178,24 @@
       <c r="C82" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
+      <c r="D82" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F82" s="4">
+      <c r="G82" s="4">
         <v>19.7</v>
       </c>
-      <c r="G82" s="4">
+      <c r="H82" s="4">
         <v>20.2</v>
       </c>
-      <c r="H82" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>30</v>
       </c>
@@ -4817,21 +5205,24 @@
       <c r="C83" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
+      <c r="D83" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F83" s="4">
+      <c r="G83" s="4">
         <v>20.2</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="H83" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H83" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>30</v>
       </c>
@@ -4841,21 +5232,24 @@
       <c r="C84" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4" t="s">
+      <c r="D84" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F84" s="4">
+      <c r="G84" s="4">
         <v>20.2</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="H84" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H84" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I84" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -4864,6 +5258,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,10 +5267,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25AC5C9E-CC9A-4DF2-A7A7-B9E312F23BB9}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4883,14 +5278,15 @@
     <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="7"/>
-    <col min="8" max="8" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="114.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="114.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4901,25 +5297,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4928,6 +5327,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4935,30 +5335,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DownloadTime xmlns="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7ea57b50-da37-4592-86a0-a80ff2cc74bc">
-      <UserInfo>
-        <DisplayName>Zachary LaFontaine</DisplayName>
-        <AccountId>77</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2D6EF5CB270004DBD6F1C836AB99536" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e44e068e002d19d122b3c2de8ac4eb3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" xmlns:ns3="7ea57b50-da37-4592-86a0-a80ff2cc74bc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="78d5891fcc835cc3450f611e49396f28" ns2:_="" ns3:_="">
     <xsd:import namespace="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
@@ -5169,10 +5545,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DownloadTime xmlns="8b25d8be-fa4e-4b2e-8872-9348d9c6191e" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7ea57b50-da37-4592-86a0-a80ff2cc74bc">
+      <UserInfo>
+        <DisplayName>Zachary LaFontaine</DisplayName>
+        <AccountId>77</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A9C250-F016-4DD8-8C42-88C7FD3225EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D845BA-5CD6-4FDC-B366-DD5408B1BC14}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
+    <ds:schemaRef ds:uri="7ea57b50-da37-4592-86a0-a80ff2cc74bc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5189,20 +5600,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30D845BA-5CD6-4FDC-B366-DD5408B1BC14}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65A9C250-F016-4DD8-8C42-88C7FD3225EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8b25d8be-fa4e-4b2e-8872-9348d9c6191e"/>
-    <ds:schemaRef ds:uri="7ea57b50-da37-4592-86a0-a80ff2cc74bc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>